--- a/untranslated/downloads/data-excel/15.7.1.1.xlsx
+++ b/untranslated/downloads/data-excel/15.7.1.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>15.7.1.1 Доля диких животных, являющихся объектом браконьерства или незаконного оборота от всех видов соответствующего класса</t>
   </si>
@@ -496,9 +496,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -506,7 +508,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="51" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -523,7 +525,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>21</v>
       </c>
@@ -540,7 +542,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -551,8 +553,9 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -583,8 +586,11 @@
       <c r="J4" s="6">
         <v>2019</v>
       </c>
+      <c r="K4" s="6">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -598,7 +604,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -629,8 +635,11 @@
       <c r="J6" s="1">
         <v>4.4000000000000004</v>
       </c>
+      <c r="K6" s="1">
+        <v>5.9</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -661,8 +670,11 @@
       <c r="J7" s="1">
         <v>1.72</v>
       </c>
+      <c r="K7" s="1">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -691,6 +703,9 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="J8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>18</v>
       </c>
     </row>

--- a/untranslated/downloads/data-excel/15.7.1.1.xlsx
+++ b/untranslated/downloads/data-excel/15.7.1.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>15.7.1.1 Доля диких животных, являющихся объектом браконьерства или незаконного оборота от всех видов соответствующего класса</t>
   </si>
@@ -496,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -508,7 +508,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="51" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -525,7 +525,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>21</v>
       </c>
@@ -542,7 +542,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -554,8 +554,9 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -589,8 +590,11 @@
       <c r="K4" s="6">
         <v>2020</v>
       </c>
+      <c r="L4" s="6">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -604,7 +608,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -638,8 +642,11 @@
       <c r="K6" s="1">
         <v>5.9</v>
       </c>
+      <c r="L6" s="1">
+        <v>7.1</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -673,8 +680,11 @@
       <c r="K7" s="1">
         <v>1.5</v>
       </c>
+      <c r="L7" s="1">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -706,6 +716,9 @@
         <v>18</v>
       </c>
       <c r="K8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>18</v>
       </c>
     </row>

--- a/untranslated/downloads/data-excel/15.7.1.1.xlsx
+++ b/untranslated/downloads/data-excel/15.7.1.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>15.7.1.1 Доля диких животных, являющихся объектом браконьерства или незаконного оборота от всех видов соответствующего класса</t>
   </si>
@@ -496,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -508,7 +508,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="51" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -525,7 +525,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>21</v>
       </c>
@@ -542,7 +542,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -555,8 +555,9 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -593,8 +594,11 @@
       <c r="L4" s="6">
         <v>2021</v>
       </c>
+      <c r="M4" s="6">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -608,7 +612,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -645,8 +649,11 @@
       <c r="L6" s="1">
         <v>7.1</v>
       </c>
+      <c r="M6" s="1">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -683,8 +690,11 @@
       <c r="L7" s="1">
         <v>0.5</v>
       </c>
+      <c r="M7" s="1">
+        <v>6.2</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -719,6 +729,9 @@
         <v>18</v>
       </c>
       <c r="L8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="8" t="s">
         <v>18</v>
       </c>
     </row>

--- a/untranslated/downloads/data-excel/15.7.1.1.xlsx
+++ b/untranslated/downloads/data-excel/15.7.1.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>15.7.1.1 Доля диких животных, являющихся объектом браконьерства или незаконного оборота от всех видов соответствующего класса</t>
   </si>
@@ -163,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -191,6 +191,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,19 +499,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="36.7109375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="37.140625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -525,7 +526,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>21</v>
       </c>
@@ -542,7 +543,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -556,8 +557,9 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -597,8 +599,11 @@
       <c r="M4" s="6">
         <v>2022</v>
       </c>
+      <c r="N4" s="6">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -611,8 +616,11 @@
       <c r="J5" s="1">
         <v>2.21</v>
       </c>
+      <c r="N5" s="1">
+        <v>4.3499999999999996</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -652,8 +660,11 @@
       <c r="M6" s="1">
         <v>18</v>
       </c>
+      <c r="N6" s="1">
+        <v>4.3499999999999996</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -693,8 +704,11 @@
       <c r="M7" s="1">
         <v>6.2</v>
       </c>
+      <c r="N7" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -732,6 +746,9 @@
         <v>18</v>
       </c>
       <c r="M8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="8" t="s">
         <v>18</v>
       </c>
     </row>
